--- a/Data/SAFARICOM SLA & Invoice.xlsx
+++ b/Data/SAFARICOM SLA & Invoice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6019e03d3618181c/KRA WORK/2024 WS/SLA EDA/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6019e03d3618181c/KRA WORK/2024 WS/SLA EDA/SLA_ETL/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{4E5B4721-1528-47B7-9BE9-1268E4D3433A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83FEF6E5-4442-4F01-9867-5ED20550AF18}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{4E5B4721-1528-47B7-9BE9-1268E4D3433A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64C79F1E-8C8B-4302-89FD-62EDE4B06ED6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" tabRatio="725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Safcom SLA 2023" sheetId="8" r:id="rId1"/>
@@ -2243,8 +2243,8 @@
   </sheetPr>
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4768,8 +4768,8 @@
   </sheetPr>
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A52" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Data/SAFARICOM SLA & Invoice.xlsx
+++ b/Data/SAFARICOM SLA & Invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6019e03d3618181c/KRA WORK/2024 WS/SLA EDA/SLA_ETL/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{4E5B4721-1528-47B7-9BE9-1268E4D3433A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64C79F1E-8C8B-4302-89FD-62EDE4B06ED6}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{4E5B4721-1528-47B7-9BE9-1268E4D3433A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED1FC318-8AAC-4085-BECB-3F03E703D41B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -850,229 +850,6 @@
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="56">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Georgia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Georgia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Georgia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Georgia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Georgia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Georgia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Georgia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Georgia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Georgia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Georgia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Georgia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Georgia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1660,6 +1437,25 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="1"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Georgia"/>
         <scheme val="none"/>
@@ -1680,6 +1476,44 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Georgia"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Georgia"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1715,6 +1549,25 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Georgia"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1732,8 +1585,46 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Georgia"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Georgia"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1768,6 +1659,43 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Georgia"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Georgia"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1802,6 +1730,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Georgia"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1836,6 +1765,77 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Georgia"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Georgia"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Georgia"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1924,52 +1924,56 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table246" displayName="Table246" ref="A1:L61" totalsRowCount="1" headerRowDxfId="55" dataDxfId="54" dataCellStyle="Comma">
   <autoFilter ref="A1:L60" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="No." totalsRowLabel="Total" dataDxfId="53" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="KRA SITES" dataDxfId="52" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Last Mile" dataDxfId="51" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Link ID" dataDxfId="50" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Capacity" dataDxfId="49" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Monthly Ex" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="SLA Date" dataDxfId="47" totalsRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Quarterly Exc" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="4" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="No." totalsRowLabel="Total" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="KRA SITES" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Last Mile" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Link ID" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Capacity" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Monthly Ex" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="SLA Date" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Quarterly Exc" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Comma">
       <calculatedColumnFormula>+F2*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Excise" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Excise" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Comma">
       <calculatedColumnFormula>+H2*0.2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="VAT" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="VAT" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Comma">
       <calculatedColumnFormula>+(H2+I2)*0.16</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Total Quarterly Inc" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="1">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Total Quarterly Inc" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>+H2+I2+J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Comments" dataDxfId="42" totalsRowDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Comments" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table1" displayName="Table1" ref="A1:M60" totalsRowCount="1" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table1" displayName="Table1" ref="A1:M60" totalsRowCount="1" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="A1:M59" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="No." totalsRowLabel="Total" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Invoice Date" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Invoice Ref." dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Invoice Period" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Link ID" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Invoice Description" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Net billed(Exc. Taxes)" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Normal 2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="VAT" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Excise" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Normal 2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Monthly Total Billed" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Normal 2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Period(Months)" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal 2"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Total Billed for the Period" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Normal 2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="Amount Including Excise" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="No." totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Invoice Date" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Invoice Ref." dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Invoice Period" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Link ID" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Invoice Description" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Net billed(Exc. Taxes)" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="VAT" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Excise" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Monthly Total Billed" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Period(Months)" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Total Billed for the Period" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="Amount Including Excise" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2244,14 +2248,14 @@
   <dimension ref="A1:P75"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" style="2" customWidth="1"/>
@@ -4754,7 +4758,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="28" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="27" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
